--- a/T04_M4_D3_support_files/T04_M4_D3_By_City.xlsx
+++ b/T04_M4_D3_support_files/T04_M4_D3_By_City.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\T04_M4_D3_support_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BEE5D-A391-42A4-8D61-18CF93797AAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB0F4F-C1DC-451F-B8C3-013321FCDB5D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{8D82E61D-3AE3-4CFF-A9C4-7C696EDAAD6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="254" r:id="rId2"/>
+    <pivotCache cacheId="15" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,32 +41,39 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="3">
+  <metadataStrings count="4">
     <s v="._GPSSQL SEIS732_Team_04_AS_Database SEIS732 Team 00 Star Schema"/>
     <s v="{[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]}"/>
     <s v="{[CUSTOMER].[Hierarchy].[CUST State].&amp;[AL]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[AR]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[CA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[CO]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[CT]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[DC]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[DE]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[FL]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[GA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[IA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[ID]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[IL]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[IN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[KS]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[KY]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[LA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MD]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[ME]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MI]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MO]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MS]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NC]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[ND]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NE]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NH]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NJ]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NM]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NV]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NY]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[OH]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[OK]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[OR]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[PA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[SC]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[SD]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[TN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[TX]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[UT]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[VA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[WA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[WI]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[WV]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Bear]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Blue]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Pluto]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Sagittarius]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Shark]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Silver]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Simple]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Squirrel]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Strange]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Pisces]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Saturn]&amp;[MN]&amp;[U.S.A.]}"/>
+    <s v="{[PRODUCT].[PRD Make Name].&amp;[Behemoth]}"/>
   </metadataStrings>
-  <mdxMetadata count="2">
+  <mdxMetadata count="3">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
     <mdx n="0" f="s">
       <ms ns="2" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="3" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>RRV Handling Fees</t>
   </si>
@@ -111,6 +118,12 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Behemoth</t>
+  </si>
+  <si>
+    <t>PRD Make Name</t>
   </si>
 </sst>
 </file>
@@ -180,9 +193,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43223.863812152777" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43233.585673611109" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="52">
+  <cacheFields count="53">
     <cacheField name="[Measures].[RRV Handling Fees]" caption="RRV Handling Fees" numFmtId="0" hierarchy="182" level="32767"/>
     <cacheField name="[Measures].[RRV Processing Fees]" caption="RRV Processing Fees" numFmtId="0" hierarchy="181" level="32767"/>
     <cacheField name="[Measures].[RRV Actual Sales Amount In Dollars]" caption="RRV Actual Sales Amount In Dollars" numFmtId="0" hierarchy="180" level="32767"/>
@@ -418,6 +431,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[CUSTOMER].[Hierarchy].[Individual Customer].[CUST Zip]" caption="CUST Zip" propertyName="CUST Zip" numFmtId="0" hierarchy="2" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PRODUCT].[PRD Make Name].[PRD Make Name]" caption="PRD Make Name" numFmtId="0" hierarchy="88" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -534,7 +550,12 @@
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color ID]" caption="PRD Color ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color ID].[All]" allUniqueName="[PRODUCT].[PRD Color ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color Name]" caption="PRD Color Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color Name].[All]" allUniqueName="[PRODUCT].[PRD Color Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Description]" caption="PRD Make Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Description].[All]" allUniqueName="[PRODUCT].[PRD Make Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="52"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price]" caption="PRD Manufacturer Suggested Retail Price" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" allUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD MMC ID]" caption="PRD MMC ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD MMC ID].[All]" allUniqueName="[PRODUCT].[PRD MMC ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Model Description]" caption="PRD Model Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Model Description].[All]" allUniqueName="[PRODUCT].[PRD Model Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
@@ -683,9 +704,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A5:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="52">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A5:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="53">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -819,6 +840,7 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="4">
     <field x="3"/>
@@ -863,9 +885,10 @@
       <x v="2"/>
     </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="25" hier="16" name="[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]" cap="Independent"/>
-    <pageField fld="41" hier="2" name="[CUSTOMER].[Hierarchy].[All]" cap="All"/>
+    <pageField fld="52" hier="88" name="[PRODUCT].[PRD Make Name].&amp;[Behemoth]" cap="Behemoth"/>
+    <pageField fld="41" hier="2" name="[CUSTOMER].[Hierarchy].[CUST State].&amp;[AL]&amp;[U.S.A.]" cap="AL"/>
   </pageFields>
   <dataFields count="3">
     <dataField fld="0" baseField="0" baseItem="0"/>
@@ -1479,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFE9E2-5B0A-45B3-B310-6EF68CBB55D7}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1493,12 +1516,20 @@
     <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s" vm="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" vm="1">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" vm="3">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1552,13 +1583,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1515657.9699999974</v>
+        <v>595539.41999999993</v>
       </c>
       <c r="C9" s="1">
-        <v>12255672.010500023</v>
+        <v>4815541.8897000086</v>
       </c>
       <c r="D9" s="1">
-        <v>691298366</v>
+        <v>278273538</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1574,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1515112.2000000002</v>
+        <v>604569.0499999997</v>
       </c>
       <c r="C11" s="1">
-        <v>12251114.214</v>
+        <v>4888572.5175000029</v>
       </c>
       <c r="D11" s="1">
-        <v>689581248</v>
+        <v>276910856</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1588,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>3030770.1700000013</v>
+        <v>1200108.4699999997</v>
       </c>
       <c r="C12" s="1">
-        <v>24506786.22450003</v>
+        <v>9704114.4072000124</v>
       </c>
       <c r="D12" s="1">
-        <v>1380879614</v>
+        <v>555184394</v>
       </c>
     </row>
   </sheetData>

--- a/T04_M4_D3_support_files/T04_M4_D3_By_City.xlsx
+++ b/T04_M4_D3_support_files/T04_M4_D3_By_City.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\T04_M4_D3_support_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB0F4F-C1DC-451F-B8C3-013321FCDB5D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BEE5D-A391-42A4-8D61-18CF93797AAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{8D82E61D-3AE3-4CFF-A9C4-7C696EDAAD6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId2"/>
+    <pivotCache cacheId="254" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,39 +41,32 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="4">
+  <metadataStrings count="3">
     <s v="._GPSSQL SEIS732_Team_04_AS_Database SEIS732 Team 00 Star Schema"/>
     <s v="{[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]}"/>
     <s v="{[CUSTOMER].[Hierarchy].[CUST State].&amp;[AL]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[AR]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[CA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[CO]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[CT]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[DC]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[DE]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[FL]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[GA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[IA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[ID]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[IL]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[IN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[KS]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[KY]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[LA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MD]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[ME]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MI]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MO]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[MS]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NC]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[ND]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NE]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NH]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NJ]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NM]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NV]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[NY]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[OH]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[OK]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[OR]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[PA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[SC]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[SD]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[TN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[TX]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[UT]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[VA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[WA]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[WI]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST State].&amp;[WV]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Bear]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Blue]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Pluto]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Sagittarius]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Shark]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Silver]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Simple]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Squirrel]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Strange]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Pisces]&amp;[MN]&amp;[U.S.A.],[CUSTOMER].[Hierarchy].[CUST County].&amp;[Saturn]&amp;[MN]&amp;[U.S.A.]}"/>
-    <s v="{[PRODUCT].[PRD Make Name].&amp;[Behemoth]}"/>
   </metadataStrings>
-  <mdxMetadata count="3">
+  <mdxMetadata count="2">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
     <mdx n="0" f="s">
       <ms ns="2" c="0"/>
     </mdx>
-    <mdx n="0" f="s">
-      <ms ns="3" c="0"/>
-    </mdx>
   </mdxMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>RRV Handling Fees</t>
   </si>
@@ -118,12 +111,6 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
-  </si>
-  <si>
-    <t>Behemoth</t>
-  </si>
-  <si>
-    <t>PRD Make Name</t>
   </si>
 </sst>
 </file>
@@ -193,9 +180,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43233.585673611109" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43223.863812152777" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="53">
+  <cacheFields count="52">
     <cacheField name="[Measures].[RRV Handling Fees]" caption="RRV Handling Fees" numFmtId="0" hierarchy="182" level="32767"/>
     <cacheField name="[Measures].[RRV Processing Fees]" caption="RRV Processing Fees" numFmtId="0" hierarchy="181" level="32767"/>
     <cacheField name="[Measures].[RRV Actual Sales Amount In Dollars]" caption="RRV Actual Sales Amount In Dollars" numFmtId="0" hierarchy="180" level="32767"/>
@@ -431,9 +418,6 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[CUSTOMER].[Hierarchy].[Individual Customer].[CUST Zip]" caption="CUST Zip" propertyName="CUST Zip" numFmtId="0" hierarchy="2" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[PRODUCT].[PRD Make Name].[PRD Make Name]" caption="PRD Make Name" numFmtId="0" hierarchy="88" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -550,12 +534,7 @@
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color ID]" caption="PRD Color ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color ID].[All]" allUniqueName="[PRODUCT].[PRD Color ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color Name]" caption="PRD Color Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color Name].[All]" allUniqueName="[PRODUCT].[PRD Color Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Description]" caption="PRD Make Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Description].[All]" allUniqueName="[PRODUCT].[PRD Make Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="52"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price]" caption="PRD Manufacturer Suggested Retail Price" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" allUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD MMC ID]" caption="PRD MMC ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD MMC ID].[All]" allUniqueName="[PRODUCT].[PRD MMC ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Model Description]" caption="PRD Model Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Model Description].[All]" allUniqueName="[PRODUCT].[PRD Model Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
@@ -704,9 +683,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A5:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="53">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A5:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="52">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -840,7 +819,6 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="4">
     <field x="3"/>
@@ -885,10 +863,9 @@
       <x v="2"/>
     </i>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="25" hier="16" name="[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]" cap="Independent"/>
-    <pageField fld="52" hier="88" name="[PRODUCT].[PRD Make Name].&amp;[Behemoth]" cap="Behemoth"/>
-    <pageField fld="41" hier="2" name="[CUSTOMER].[Hierarchy].[CUST State].&amp;[AL]&amp;[U.S.A.]" cap="AL"/>
+    <pageField fld="41" hier="2" name="[CUSTOMER].[Hierarchy].[All]" cap="All"/>
   </pageFields>
   <dataFields count="3">
     <dataField fld="0" baseField="0" baseItem="0"/>
@@ -1502,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFE9E2-5B0A-45B3-B310-6EF68CBB55D7}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1516,20 +1493,12 @@
     <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s" vm="1">
-        <v>12</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s" vm="3">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" vm="1">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1583,13 +1552,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>595539.41999999993</v>
+        <v>1515657.9699999974</v>
       </c>
       <c r="C9" s="1">
-        <v>4815541.8897000086</v>
+        <v>12255672.010500023</v>
       </c>
       <c r="D9" s="1">
-        <v>278273538</v>
+        <v>691298366</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1605,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>604569.0499999997</v>
+        <v>1515112.2000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>4888572.5175000029</v>
+        <v>12251114.214</v>
       </c>
       <c r="D11" s="1">
-        <v>276910856</v>
+        <v>689581248</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1619,13 +1588,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>1200108.4699999997</v>
+        <v>3030770.1700000013</v>
       </c>
       <c r="C12" s="1">
-        <v>9704114.4072000124</v>
+        <v>24506786.22450003</v>
       </c>
       <c r="D12" s="1">
-        <v>555184394</v>
+        <v>1380879614</v>
       </c>
     </row>
   </sheetData>
